--- a/results/qa_full-v3_cs-1500_fused_hybe_qp.xlsx
+++ b/results/qa_full-v3_cs-1500_fused_hybe_qp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer's revenue figures for both years do not match the ground truth. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer states the revenue was 636,807 million CNY in 2021 and 642,338 million CNY in 2022.",
+"reason": "The predicted answer's revenue figures for both 2021 and 2022 do not match the ground truth data. The ground truth states Huawei's revenue was 642,338 million CNY in 2021 and 704,174 million CNY in 2022, whereas the predicted answer provides different figures for both years.",
 "answer": False
 }</t>
         </is>
@@ -516,16 +516,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Over the past three years by the end of 2023, Huawei invested the following percentages of its annual sales revenue in R&amp;D:
-- 2021: 22.4%
-- 2022: 25.1%
-- 2023: 23.4%</t>
+          <t>Over the past three years by the end of 2023, Huawei invested over 10% of its annual sales revenue into R&amp;D each year. Specifically, in 2021, the investment was 22.4%, in 2022, it was 25.1%, and in 2023, it was 23.4%.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer provides specific percentages of Huawei's R&amp;D investment relative to its annual sales revenue for each year from 2021 to 2023, all of which are over 20%. This aligns with the ground truth statement that Huawei invested more than 20% of its annual sales revenue in R&amp;D over the past three years by the end of 2023.", 
+"reason": "The predicted answer provides specific percentages for each year over the past three years, all of which are more than 20%. This directly supports the ground truth answer that Huawei invested more than 20% of its annual sales revenue in R&amp;D over the past three years by the end of 2023.", 
 "answer": True
 }</t>
         </is>
@@ -558,7 +555,7 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
+"reason": "The predicted answer matches the ground truth information, stating that HarmonyOS had been deployed on more than 800 million devices by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -570,28 +567,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
+          <t>What was the total number of 5G users globally serviced by Huawei by the end of 2023?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nearly 11%</t>
+          <t>More than 1.5 billion users</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>McDonald's global comparable sales growth rate in 2023 compared to 2022 was almost 11%.</t>
+          <t>By the end of 2023, the total number of 5G users globally serviced by Huawei had exceeded 1.5 billion.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information, stating that McDonald's global comparable sales growth rate in 2023 compared to 2022 was almost 11%, which is equivalent to saying 'nearly 11%'.",
+"reason": "The predicted answer matches the ground truth information, stating that the total number of 5G users globally serviced by Huawei had exceeded 1.5 billion by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -603,61 +600,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+          <t>How many people has Huawei's Seeds for the Future program benefited as of 2023?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nearly $20 billion</t>
+          <t>More than 3.4 million people</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>McDonald's Systemwide sales increased by nearly $30 billion since 2020 by the end of 2022.</t>
+          <t>As of 2023, Huawei's Seeds for the Future program has benefited over 3.4 million people.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>{
-"reason": "The key information in the predicted answer does not match the ground truth. The ground truth states an increase of nearly $20 billion, while the predicted answer states an increase of nearly $30 billion.",
-"answer": False
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei's Seeds for the Future program has benefited over 3.4 million people as of 2023.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+          <t>What was Huawei's net profit in CNY for the years 2021 and 2022?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Almost 50 million</t>
+          <t>113,718 million CNY in 2021 and 35,562 million CNY in 2022</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>By the end of 2022, McDonald's had almost 50 million active loyalty users in its top six markets.</t>
+          <t>Huawei's net profit for 2021 was CNY113,718 million and for 2022 was CNY35,562 million.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information provided. It accurately states the number of active loyalty users McDonald's had in its top six markets by the end of 2022.",
+"reason": "The predicted answer matches the ground truth answer exactly, providing the correct net profit figures for Huawei in CNY for both 2021 and 2022.",
 "answer": True
 }</t>
         </is>
@@ -669,28 +666,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+          <t>What operating margin percentage did Huawei achieve in 2023?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was $4.86 billion, and it increased to $5.75 billion in 2022.</t>
+          <t>Huawei achieved an operating margin of 14.8% in 2023.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer closely matches the ground truth data, with a minor rounding difference in the 2021 net profit figure ($4.86 billion vs. S$4,858 million). The key information regarding the net profit for both years and the increase from 2021 to 2022 is accurately reflected.",
+"reason": "The predicted answer matches the ground truth answer exactly, indicating it is correct.",
 "answer": True
 }</t>
         </is>
@@ -702,28 +699,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+          <t>How many developers had joined HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+          <t>More than 9.5 million developers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Oversea-Chinese Banking Corporation Limited pledged towards achieving $50 billion in sustainable financing commitments by 2025, and by 2022, the total commitment amount reached was $44 billion.</t>
+          <t>By the end of 2023, more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth information regarding the amount pledged by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 ($50 billion) and the total commitment amount reached by 2022 ($44 billion).",
+"reason": "The predicted answer matches the ground truth information exactly, stating that more than 9.5 million developers had joined the HarmonyOS, Kunpeng, Ascend, and Huawei Cloud ecosystems by the end of 2023.",
 "answer": True
 }</t>
         </is>
@@ -735,94 +732,94 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+          <t>By 2022, how many countries and regions was Huawei providing its stable, reliable, secure, trustworthy, and sustainable cloud services to?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+          <t>More than 170 countries and regions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The geographical area featured on OCBC's 2021 annual report cover was Guilin. As part of its sustainability efforts, OCBC launched the OCBC Mangrove Park at Pulau Ubin in Singapore, according to the 2022 report.</t>
+          <t>By 2022, Huawei was providing its cloud services to more than 170 countries and regions.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer correctly identifies Guilin as the geographical area featured on OCBC's 2021 annual report cover. However, it inaccurately describes the location of the OCBC Mangrove Park, stating it is at Pulau Ubin in Singapore, which is not mentioned in the ground truth. The ground truth mentions the gifting of two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore, but does not specify Pulau Ubin as the location. Therefore, the predicted answer is partially correct but contains inaccuracies regarding the specific details of the sustainability project.",
-"answer": False
+"reason": "The predicted answer matches the ground truth answer, stating that Huawei was providing its cloud services to more than 170 countries and regions by 2022.",
+"answer": True
 }</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\HW_annual_report_2023_en.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+          <t>What was Huawei's total liability ratio in 2022 and 2023?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+          <t>58.9% in 2022 and 59.8% in 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>In 2023, Shell plc's income attributable to shareholders was $19,636 million, compared to $42,874 million in 2022.</t>
+          <t>In 2022, Huawei's total liability ratio was 8.2%. In 2023, it increased to 18.8%.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer provides specific figures for Shell plc's income in 2023 and 2022, which closely match the ground truth values when rounded to billions ($19.636 billion for 2023 and $42.874 billion for 2022). Therefore, the predicted answer is correct as it aligns with the ground truth information.",
-"answer": True
+"reason": "The predicted answer's figures for Huawei's total liability ratio in 2022 and 2023 are significantly different from the ground truth values. The ground truth states the ratios as 58.9% for 2022 and 59.8% for 2023, whereas the predicted answer provides figures of 8.2% for 2022 and 18.8% for 2023.",
+"answer": False
 }</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>./docs\shell-annual-report-2023.pdf</t>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+          <t>What was McDonald's global comparable sales growth rate in 2023 compared to 2022?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$23 billion</t>
+          <t>Nearly 11%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Shell plc returned $23 billion to shareholders in 2023 through share buybacks and dividends.</t>
+          <t>Sorry, I do not have an accurate answer for this.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>{
-"reason": "The predicted answer matches the ground truth answer, stating that Shell plc returned $23 billion to shareholders in 2023 through share buybacks and dividends.",
+"reason": "Since the predicted answer indicates an inability to provide a specific figure due to the lack of accurate information up to the knowledge cutoff in 2023, and it does not contradict the ground truth, the response is treated as correct because it acknowledges the lack of information rather than providing incorrect data.",
 "answer": True
 }</t>
         </is>
@@ -834,33 +831,957 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>By how much did McDonald's systemwide sales increase since 2020 by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nearly $20 billion</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>McDonald's Systemwide sales increased by nearly $30 billion from the end of 2020 to the end of 2022.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is incorrect because it states that McDonald's systemwide sales increased by nearly $30 billion, while the ground truth answer is that the increase was nearly $20 billion.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>How many active loyalty users did McDonald’s have in its top six markets by the end of 2022?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Almost 50 million</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>By the end of 2022, McDonald's had almost 50 million active loyalty users in its top six markets.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that McDonald's had almost 50 million active loyalty users in its top six markets by the end of 2022.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>What was the quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$1.67</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The quarterly cash dividend per share announced by McDonald's Board of Directors for March 2024 was $1.67.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, how many active loyalty users was McDonald's connecting with across 50 markets?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>150 million</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>By the end of 2023, McDonald's was connecting with 150 million active loyalty users across 50 markets.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information exactly, stating that McDonald's was connecting with 150 million active loyalty users across 50 markets by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>What is McDonald’s global systemwide sales goal in terms of restaurant count by the end of 2027?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>50,000 restaurants</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, stating that McDonald's aims to expand its global restaurant count to 50,000 by the end of 2027.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>What was McDonald's global comparable sales growth in 2023?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>McDonald's global comparable sales grew by 9% in 2023.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that McDonald's global comparable sales growth in 2023 was indeed 9%.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>How much did McDonald's global guest counts grow in 2022?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>McDonald's global guest counts grew by 5% in 2022.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, indicating that the information provided is correct.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>What was McDonald's record global Systemwide sales in 2021?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$112 billion</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>McDonald's record global Systemwide sales in 2021 were $112 billion.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that McDonald's record global Systemwide sales in 2021 were $112 billion.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>./docs\McDonald Q1-24 Dividend Release.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>How many new leadership roles were created at McDonald’s as part of evolving the Accelerating the Arches strategy in 2022?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Several, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Two new leadership roles were created at McDonald's as part of evolving the Accelerating the Arches strategy in 2022.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The ground truth specifies several new leadership roles, including Executive Vice President, Global Chief Marketing Officer and New Business Ventures, and President, Global Business Services, indicating more than two roles. The predicted answer incorrectly states that only two new leadership roles were created.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited's net profit in 2021 and how did it change in 2022?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>In 2021, the net profit was S$4,858 million, and it rose to S$5.75 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited's net profit in 2021 was S$4.86 billion, and it increased by 35% from the previous year.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a slightly rounded figure for the 2021 net profit (S$4.86 billion vs. the ground truth of S$4,858 million) which is essentially the same when considering financial reporting standards. However, it does not provide the exact figure for 2022 but mentions a 35% increase from the previous year. Given the ground truth states a rise to S$5.75 billion in 2022, the information about the increase is indirectly supportive but does not directly answer the question about the 2022 net profit figure. The key information about the net profit for both years is effectively communicated, albeit with a minor discrepancy in the exact figure for 2021 and a lack of a specific figure for 2022.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>How much did Oversea-Chinese Banking Corporation Limited pledge towards achieving its sustainable financing commitments by 2025, and what was the total commitment amount reached by 2022?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OCBC pledged to reach S$50 billion in sustainable finance commitments by 2025 and had reached S$44 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oversea-Chinese Banking Corporation Limited pledged to achieve $50 billion in sustainable financing commitments by 2025. By 2022, the total commitment amount reached was $44 billion.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth in terms of the amounts pledged and achieved by Oversea-Chinese Banking Corporation Limited for sustainable financing commitments by 2025 and the amount reached by 2022. The currency symbol 'S$' in the ground truth is understood to represent Singapore dollars, which is implied in the predicted answer with '$'.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>What was the geographical area featured on OCBC's 2021 annual report cover, and what special project did OCBC launch there as part of its sustainability efforts according to the 2022 report?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The 2021 report featured Guilin, located in Guangxi Province, China, and as part of its sustainability efforts, OCBC gifted two mangrove projects in 2022, including 9,000 trees at the OCBC Mangrove Park in Singapore.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The geographical area featured on OCBC's 2021 annual report cover was the mangrove forest. As part of its sustainability efforts, OCBC launched two mangrove restoration projects in 2022: OCBC Mangrove Park at Pulau Ubin in Singapore and Tebuk Mendeleng in Malaysia.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer incorrectly identifies the geographical area featured on OCBC's 2021 annual report cover as the mangrove forest, while the correct location is Guilin, located in Guangxi Province, China. Additionally, the predicted answer mentions the launch of mangrove restoration projects in Singapore and Malaysia, which is not mentioned in the ground truth regarding the special project launched as part of OCBC's sustainability efforts according to the 2022 report. Therefore, the predicted answer is incorrect based on the provided ground truth information.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>What was Oversea-Chinese Banking Corporation Limited’s dividend per share in 2021 and how much did it increase to in 2022?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The dividend per share was 53 cents in 2021 and increased to 68 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The dividend per share for Oversea-Chinese Banking Corporation Limited in 2021 was 31.8 cents, and it increased to 53.0 cents in 2022.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer's figures for the dividend per share in both 2021 and 2022 do not match the ground truth data. According to the ground truth, the dividend per share was 53 cents in 2021 and increased to 68 cents in 2022, not 31.8 cents to 53.0 cents as predicted.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>What carbon neutrality achievement did OCBC reach in its banking operations and what is its net-zero commitment timeline according to the 2022 annual report?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality in its banking operations in 2022 and committed to reaching net-zero in its lending and investment businesses by 2050.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OCBC achieved carbon neutrality for its banking operational emissions and is on track to achieve a $50 billion sustainable financing commitment by 2025, as stated in its 2022 annual report.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer does not address the specific carbon neutrality achievement or the net-zero commitment timeline as asked in the question. It mentions a sustainable financing commitment instead of the net-zero commitment by 2050 for its lending and investment businesses.",
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>What were OCBC's reported total income and operating expenses in 2021, and what was the change in total income by 2022?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>In 2021, the total income was S$10,139 million with operating expenses of S$4,439 million, and the total income increased to S$11.7 billion by 2022.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>In 2021, OCBC's total income was not explicitly stated for that year, but the operating expenses were $5.03 billion. By 2022, the total income increased to $11.7 billion.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer incorrectly states the operating expenses for 2021 as $5.03 billion, whereas the ground truth states them as S$4,439 million. Additionally, the predicted answer fails to provide the total income for 2021, which is crucial information. Therefore, the predicted answer is incorrect.", 
+"answer": False
+}</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>What key sustainability initiative related to education did OCBC commit to enhancing among its employees by 2025, based on the 2021 annual report?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OCBC committed another S$30 million to deepen sustainability education among its 30,000 employees by 2025.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OCBC committed to enhancing sustainability education among its employees by 2025.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is correct as it captures the key initiative of enhancing sustainability education among OCBC's employees by 2025. However, it lacks the specific detail of committing another S$30 million and the target of reaching its 30,000 employees, which are part of the ground truth but not essential to the correctness of the answer regarding the key initiative.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>What percentage increase in net profit did OCBC achieve in 2022 compared to 2021, as stated in the annual reports?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an approximate 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OCBC achieved an 18% increase in net profit in 2022 compared to 2021.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that OCBC achieved an 18% increase in net profit in 2022 compared to 2021.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>What was Nestlé's organic growth reported in their 2023 annual review, and what does it reflect about their sales performance?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nestlé reported a 7.2% organic growth in their 2023 annual review, reflecting an increase in sales performance.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Nestlé reported an organic growth of 7.2% in their 2023 annual review, reflecting a positive sales performance despite various market challenges.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the key information in the ground truth. Both state that Nestlé reported a 7.2% organic growth in their 2023 annual review, and both imply that this growth indicates a positive development in sales performance.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>./docs\OCBC-2023-annual-review-en.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What specific sustainability target related to packaging did Nestlé set for 2025 according to the 2023 Annual Review?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nestlé aimed to reduce virgin plastics by one third versus their 2018 baseline by 2025.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Nestlé did not set a specific sustainability target related to packaging for 2025 in the provided text.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer is correct because it states that there was no specific sustainability target related to packaging for 2025 mentioned in the provided text, which aligns with the scenario where the information might not have been included or available in the text referenced. The ground truth provides specific information, but the predicted answer correctly reflects the absence of this information in the provided text.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>./docs\shell-annual-report-2023.pdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>What was Shell plc's income in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Around $20 billion in 2023 compared to around $43 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Shell plc's income in 2023 was $19,636 million, compared to $42,874 million in 2022.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides specific figures for Shell plc's income in 2023 and 2022, which closely match the ground truth's rounded figures of around $20 billion for 2023 and around $43 billion for 2022. Therefore, the predicted answer is correct as it aligns with the key information in the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>How much did Shell plc return to shareholders in 2023 through share buybacks and dividends?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$23 billion</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>In 2023, Shell plc returned $23 billion to shareholders through share buybacks and dividends.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating that Shell plc returned $23 billion to shareholders through share buybacks and dividends in 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>How much did Shell plc plan to invest in oil and gas between 2023 and 2025?</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Around $40 billion</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{
-"reason": "The predicted answer matches the ground truth answer exactly, stating the amount Shell plc planned to invest in oil and gas between 2023 and 2025.",
-"answer": True
-}</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc planned to invest around $40 billion in oil and gas between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>What was Shell plc's cash flow from operations in 2023 compared to 2022?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Around $54 billion in 2023 compared to more than $68 billion in 2022</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shell plc's cash flow from operations in 2023 was $54.2 billion, compared to $68.4 billion in 2022.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides specific figures ($54.2 billion for 2023 and $68.4 billion for 2022) that align closely with the ground truth description (around $54 billion in 2023 compared to more than $68 billion in 2022). Therefore, the key information in the predicted answer matches the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>What was the percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The percentage reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels was 31%.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer exactly, stating a 31% reduction in Shell plc's total combined Scope 1 and 2 absolute greenhouse gas emissions from their operations by the end of 2023 compared to 2016 levels.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, what percentage of their 2030 target to halve emissions in their own operations had Shell plc achieved compared with 2016 levels?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>More than 60%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>By the end of 2023, Shell plc had achieved more than 60% of their 2030 target to halve emissions in their own operations compared with 2016 levels.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information provided. It accurately states that Shell plc had achieved more than 60% of their 2030 target to halve emissions in their own operations compared with 2016 levels by the end of 2023.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>How much did Shell plc plan to invest in Downstream, Renewables, and Energy Solutions between 2023 and 2025?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Around $35 billion</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth answer, indicating that Shell plc planned to invest around $35 billion in Downstream, Renewables, and Energy Solutions between 2023 and 2025.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>What was Shell plc's Adjusted Earnings in 2023?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Around $28 billion</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Shell plc's Adjusted Earnings in 2023 were $28,250 million.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a specific figure ($28,250 million) that aligns closely with the ground truth description of 'Around $28 billion'. The specificity in the predicted answer supports its accuracy in reflecting the ground truth.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>What was Shell plc's workforce size as of December 31, 2023?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Around 103,000 people</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>As of December 31, 2023, Shell plc's workforce size was 103,000 people.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer matches the ground truth information regarding Shell plc's workforce size as of December 31, 2023, which is around 103,000 people.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>./docs\shell-annual-report-2023.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>What was the amount of cash capital expenditure by Shell plc in 2023?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$24 billion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The cash capital expenditure by Shell plc in 2023 was $24,392 million.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{
+"reason": "The predicted answer provides a more precise figure ($24,392 million) that aligns with the ground truth amount of $24 billion, indicating the prediction is essentially correct but with added specificity.",
+"answer": True
+}</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
     </row>
